--- a/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
@@ -603,6 +603,9 @@
       <c r="C21" t="str">
         <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -664,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015155555109255155101510768200</v>
+        <v>015155555109255155101510768208</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,9 +607,184 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F24" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4</v>
+      </c>
+      <c r="C28" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>5</v>
+      </c>
+      <c r="C30" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>658_大丽花 粉桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>6</v>
+      </c>
+      <c r="C36" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>7</v>
+      </c>
+      <c r="C40" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015155555109255155101510768208</v>
+        <v>015155555109255155101510768208720211212123555315540520553580</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
@@ -781,6 +781,9 @@
         <v xml:space="preserve">448_吊米 绿_hanging amaranthus
 green_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -842,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015155555109255155101510768208720211212123555315540520553580</v>
+        <v>0151555551092551551015107682087202112121235553155405205535823</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-5.xlsx
@@ -847,6 +847,9 @@
       <c r="G2" t="str">
         <v>0151555551092551551015107682087202112121235553155405205535823</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
